--- a/biology/Botanique/Linaria_virgata/Linaria_virgata.xlsx
+++ b/biology/Botanique/Linaria_virgata/Linaria_virgata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linaria virgata est une espèce de plantes de la famille des Plantaginaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linaria virgata est une espèce de plantes de la famille des Plantaginaceae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,15 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Jean-Louis Marie Poiret décrit en 1789 l'espèce Antirrhinum virgatum[2]. René Desfontaines la renomme Linaria virgata en 1798[3].
-Toutefois, un siècle plus tard, Svante Samuel Murbeck, s'apercevant que les Linaria virgata décrits par divers auteurs comprenaient plusieurs types distincts, a repris leur étude et a défini plusieurs sous-espèces[4]. En plus de la sous-espèce virgata, il définit la sous-espèce algeriensis, qui correspond au L. virgata décrit par Jules Aimé Battandier en 1890[5]. La sous-espèce syrtica est le L. virgata de Domenico Viviani[6], de Paul Friedrich August Ascherson[7], de Aristide Letourneux[8] et de Gustave Barratte[9]. Il ajoute une nouvelle sous-espèce tunetana. Ces trois sous-espèces sont des taxons toujours acceptés aujourd'hui.
-Murbeck fait de la variété calycina et de la sous-variété lutea décrites par Battandier[10] une sous-espèce calycina. Mais David A. Sutton en fait une espèce Linaria parviracemosa en 1988[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Jean-Louis Marie Poiret décrit en 1789 l'espèce Antirrhinum virgatum. René Desfontaines la renomme Linaria virgata en 1798.
+Toutefois, un siècle plus tard, Svante Samuel Murbeck, s'apercevant que les Linaria virgata décrits par divers auteurs comprenaient plusieurs types distincts, a repris leur étude et a défini plusieurs sous-espèces. En plus de la sous-espèce virgata, il définit la sous-espèce algeriensis, qui correspond au L. virgata décrit par Jules Aimé Battandier en 1890. La sous-espèce syrtica est le L. virgata de Domenico Viviani, de Paul Friedrich August Ascherson, de Aristide Letourneux et de Gustave Barratte. Il ajoute une nouvelle sous-espèce tunetana. Ces trois sous-espèces sont des taxons toujours acceptés aujourd'hui.
+Murbeck fait de la variété calycina et de la sous-variété lutea décrites par Battandier une sous-espèce calycina. Mais David A. Sutton en fait une espèce Linaria parviracemosa en 1988.
 René Maire avait proposé en 1935 de faire du Linaria riffea décrit par Pau[Qui ?] en 1911 une sous-espèce de L. virgata, mais cette combinaison est aujourd'hui rejetée au profit du nom binomial initial.
-Poiret donne le nom vernaculaire français de Muflier effilé, épithète correspondant bien à sa description : « Cette espèce est frappante par un grand nombre de tiges droites, nullement rameuses, qui partent de la même racine »[2]. Ce sens est donc à rapprocher du latin virga signifiant « petite branche mince, baguette »[12].
+Poiret donne le nom vernaculaire français de Muflier effilé, épithète correspondant bien à sa description : « Cette espèce est frappante par un grand nombre de tiges droites, nullement rameuses, qui partent de la même racine ». Ce sens est donc à rapprocher du latin virga signifiant « petite branche mince, baguette ».
 </t>
         </is>
       </c>
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
